--- a/5kurs/pereverzev/is_upr_org/ISUprMatrixPPP-BO.xlsx
+++ b/5kurs/pereverzev/is_upr_org/ISUprMatrixPPP-BO.xlsx
@@ -745,7 +745,128 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1038,10 +1159,10 @@
   <dimension ref="A1:BX110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="AD80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="BX109" sqref="BX109"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1560,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="BX2">
-        <f>SUM(B2:BW2)</f>
+        <f t="shared" ref="BX2:BX33" si="0">SUM(B2:BW2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1791,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="BX3">
-        <f>SUM(B3:BW3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -2022,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="BX4">
-        <f>SUM(B4:BW4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2253,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="BX5">
-        <f>SUM(B5:BW5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -2484,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="BX6">
-        <f>SUM(B6:BW6)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -2715,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="BX7">
-        <f>SUM(B7:BW7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2946,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="BX8">
-        <f>SUM(B8:BW8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3177,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="BX9">
-        <f>SUM(B9:BW9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3408,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="BX10">
-        <f>SUM(B10:BW10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -3639,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="BX11">
-        <f>SUM(B11:BW11)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -3870,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="BX12">
-        <f>SUM(B12:BW12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4101,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="BX13">
-        <f>SUM(B13:BW13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -4332,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="BX14">
-        <f>SUM(B14:BW14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4563,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="BX15">
-        <f>SUM(B15:BW15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4794,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="BX16">
-        <f>SUM(B16:BW16)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5025,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="BX17">
-        <f>SUM(B17:BW17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -5256,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="BX18">
-        <f>SUM(B18:BW18)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -5487,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="BX19">
-        <f>SUM(B19:BW19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5718,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="BX20">
-        <f>SUM(B20:BW20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5949,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="BX21">
-        <f>SUM(B21:BW21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6180,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="BX22">
-        <f>SUM(B22:BW22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6411,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="BX23">
-        <f>SUM(B23:BW23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6642,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="BX24">
-        <f>SUM(B24:BW24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -6873,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="BX25">
-        <f>SUM(B25:BW25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7104,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="BX26">
-        <f>SUM(B26:BW26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7335,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="BX27">
-        <f>SUM(B27:BW27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -7566,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="BX28">
-        <f>SUM(B28:BW28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -7797,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="BX29">
-        <f>SUM(B29:BW29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8028,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="BX30">
-        <f>SUM(B30:BW30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -8259,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="BX31">
-        <f>SUM(B31:BW31)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8490,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="BX32">
-        <f>SUM(B32:BW32)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8721,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="BX33">
-        <f>SUM(B33:BW33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8952,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="BX34">
-        <f>SUM(B34:BW34)</f>
+        <f t="shared" ref="BX34:BX65" si="1">SUM(B34:BW34)</f>
         <v>0</v>
       </c>
     </row>
@@ -9183,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="BX35">
-        <f>SUM(B35:BW35)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9414,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="BX36">
-        <f>SUM(B36:BW36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -9645,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="BX37">
-        <f>SUM(B37:BW37)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -9876,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="BX38">
-        <f>SUM(B38:BW38)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -10107,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="BX39">
-        <f>SUM(B39:BW39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10338,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="BX40">
-        <f>SUM(B40:BW40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10569,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="BX41">
-        <f>SUM(B41:BW41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10800,7 +10921,7 @@
         <v>0</v>
       </c>
       <c r="BX42">
-        <f>SUM(B42:BW42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11031,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="BX43">
-        <f>SUM(B43:BW43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11262,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="BX44">
-        <f>SUM(B44:BW44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -11493,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="BX45">
-        <f>SUM(B45:BW45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11724,7 +11845,7 @@
         <v>0</v>
       </c>
       <c r="BX46">
-        <f>SUM(B46:BW46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11955,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="BX47">
-        <f>SUM(B47:BW47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12186,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="BX48">
-        <f>SUM(B48:BW48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12417,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="BX49">
-        <f>SUM(B49:BW49)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -12648,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="BX50">
-        <f>SUM(B50:BW50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -12879,7 +13000,7 @@
         <v>0</v>
       </c>
       <c r="BX51">
-        <f>SUM(B51:BW51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -13110,7 +13231,7 @@
         <v>0</v>
       </c>
       <c r="BX52">
-        <f>SUM(B52:BW52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -13341,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="BX53">
-        <f>SUM(B53:BW53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -13572,7 +13693,7 @@
         <v>0</v>
       </c>
       <c r="BX54">
-        <f>SUM(B54:BW54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -13803,7 +13924,7 @@
         <v>0</v>
       </c>
       <c r="BX55">
-        <f>SUM(B55:BW55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14034,7 +14155,7 @@
         <v>0</v>
       </c>
       <c r="BX56">
-        <f>SUM(B56:BW56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -14265,7 +14386,7 @@
         <v>0</v>
       </c>
       <c r="BX57">
-        <f>SUM(B57:BW57)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -14496,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="BX58">
-        <f>SUM(B58:BW58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -14727,7 +14848,7 @@
         <v>0</v>
       </c>
       <c r="BX59">
-        <f>SUM(B59:BW59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -14958,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="BX60">
-        <f>SUM(B60:BW60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15189,7 +15310,7 @@
         <v>0</v>
       </c>
       <c r="BX61">
-        <f>SUM(B61:BW61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15420,7 +15541,7 @@
         <v>0</v>
       </c>
       <c r="BX62">
-        <f>SUM(B62:BW62)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -15651,7 +15772,7 @@
         <v>0</v>
       </c>
       <c r="BX63">
-        <f>SUM(B63:BW63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -15882,7 +16003,7 @@
         <v>0</v>
       </c>
       <c r="BX64">
-        <f>SUM(B64:BW64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16113,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="BX65">
-        <f>SUM(B65:BW65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -16344,7 +16465,7 @@
         <v>0</v>
       </c>
       <c r="BX66">
-        <f>SUM(B66:BW66)</f>
+        <f t="shared" ref="BX66:BX97" si="2">SUM(B66:BW66)</f>
         <v>0</v>
       </c>
     </row>
@@ -16575,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="BX67">
-        <f>SUM(B67:BW67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -16806,7 +16927,7 @@
         <v>0</v>
       </c>
       <c r="BX68">
-        <f>SUM(B68:BW68)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -17037,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="BX69">
-        <f>SUM(B69:BW69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17268,7 +17389,7 @@
         <v>0</v>
       </c>
       <c r="BX70">
-        <f>SUM(B70:BW70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17499,7 +17620,7 @@
         <v>0</v>
       </c>
       <c r="BX71">
-        <f>SUM(B71:BW71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17730,7 +17851,7 @@
         <v>0</v>
       </c>
       <c r="BX72">
-        <f>SUM(B72:BW72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -17961,7 +18082,7 @@
         <v>0</v>
       </c>
       <c r="BX73">
-        <f>SUM(B73:BW73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18192,7 +18313,7 @@
         <v>0</v>
       </c>
       <c r="BX74">
-        <f>SUM(B74:BW74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18423,7 +18544,7 @@
         <v>0</v>
       </c>
       <c r="BX75">
-        <f>SUM(B75:BW75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -18654,7 +18775,7 @@
         <v>0</v>
       </c>
       <c r="BX76">
-        <f>SUM(B76:BW76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -18885,7 +19006,7 @@
         <v>0</v>
       </c>
       <c r="BX77">
-        <f>SUM(B77:BW77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19116,7 +19237,7 @@
         <v>0</v>
       </c>
       <c r="BX78">
-        <f>SUM(B78:BW78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19347,7 +19468,7 @@
         <v>0</v>
       </c>
       <c r="BX79">
-        <f>SUM(B79:BW79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19578,7 +19699,7 @@
         <v>0</v>
       </c>
       <c r="BX80">
-        <f>SUM(B80:BW80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -19809,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="BX81">
-        <f>SUM(B81:BW81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20040,7 +20161,7 @@
         <v>0</v>
       </c>
       <c r="BX82">
-        <f>SUM(B82:BW82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20271,7 +20392,7 @@
         <v>0</v>
       </c>
       <c r="BX83">
-        <f>SUM(B83:BW83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20502,7 +20623,7 @@
         <v>0</v>
       </c>
       <c r="BX84">
-        <f>SUM(B84:BW84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -20733,7 +20854,7 @@
         <v>0</v>
       </c>
       <c r="BX85">
-        <f>SUM(B85:BW85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -20964,7 +21085,7 @@
         <v>0</v>
       </c>
       <c r="BX86">
-        <f>SUM(B86:BW86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21195,7 +21316,7 @@
         <v>0</v>
       </c>
       <c r="BX87">
-        <f>SUM(B87:BW87)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21426,7 +21547,7 @@
         <v>0</v>
       </c>
       <c r="BX88">
-        <f>SUM(B88:BW88)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21657,7 +21778,7 @@
         <v>0</v>
       </c>
       <c r="BX89">
-        <f>SUM(B89:BW89)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -21888,7 +22009,7 @@
         <v>0</v>
       </c>
       <c r="BX90">
-        <f>SUM(B90:BW90)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22119,7 +22240,7 @@
         <v>0</v>
       </c>
       <c r="BX91">
-        <f>SUM(B91:BW91)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22350,7 +22471,7 @@
         <v>0</v>
       </c>
       <c r="BX92">
-        <f>SUM(B92:BW92)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -22581,7 +22702,7 @@
         <v>0</v>
       </c>
       <c r="BX93">
-        <f>SUM(B93:BW93)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -22812,7 +22933,7 @@
         <v>0</v>
       </c>
       <c r="BX94">
-        <f>SUM(B94:BW94)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23043,7 +23164,7 @@
         <v>0</v>
       </c>
       <c r="BX95">
-        <f>SUM(B95:BW95)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23274,7 +23395,7 @@
         <v>0</v>
       </c>
       <c r="BX96">
-        <f>SUM(B96:BW96)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -23505,7 +23626,7 @@
         <v>0</v>
       </c>
       <c r="BX97">
-        <f>SUM(B97:BW97)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23736,7 +23857,7 @@
         <v>0</v>
       </c>
       <c r="BX98">
-        <f>SUM(B98:BW98)</f>
+        <f t="shared" ref="BX98:BX129" si="3">SUM(B98:BW98)</f>
         <v>1</v>
       </c>
     </row>
@@ -23967,7 +24088,7 @@
         <v>0</v>
       </c>
       <c r="BX99">
-        <f>SUM(B99:BW99)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -24198,7 +24319,7 @@
         <v>0</v>
       </c>
       <c r="BX100">
-        <f>SUM(B100:BW100)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24429,7 +24550,7 @@
         <v>0</v>
       </c>
       <c r="BX101">
-        <f>SUM(B101:BW101)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24660,7 +24781,7 @@
         <v>0</v>
       </c>
       <c r="BX102">
-        <f>SUM(B102:BW102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24891,7 +25012,7 @@
         <v>0</v>
       </c>
       <c r="BX103">
-        <f>SUM(B103:BW103)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25122,7 +25243,7 @@
         <v>0</v>
       </c>
       <c r="BX104">
-        <f>SUM(B104:BW104)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25353,7 +25474,7 @@
         <v>1</v>
       </c>
       <c r="BX105">
-        <f>SUM(B105:BW105)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -25584,7 +25705,7 @@
         <v>0</v>
       </c>
       <c r="BX106">
-        <f>SUM(B106:BW106)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25815,7 +25936,7 @@
         <v>0</v>
       </c>
       <c r="BX107">
-        <f>SUM(B107:BW107)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -26046,7 +26167,7 @@
         <v>0</v>
       </c>
       <c r="BX108">
-        <f>SUM(B108:BW108)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -26277,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="BX109">
-        <f>SUM(B109:BW109)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -26290,299 +26411,315 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <f t="shared" ref="C110:P110" si="0">SUM(C2:C109)</f>
+        <f t="shared" ref="C110:P110" si="4">SUM(C2:C109)</f>
         <v>1</v>
       </c>
       <c r="D110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P110">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q110">
-        <f t="shared" ref="Q110:AC110" si="1">SUM(Q2:Q109)</f>
-        <v>1</v>
-      </c>
-      <c r="R110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Z110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AA110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC110">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AD110">
-        <f t="shared" ref="AD110:AN110" si="2">SUM(AD2:AD109)</f>
-        <v>1</v>
-      </c>
-      <c r="AE110">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AF110">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG110">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AH110">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AI110">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AJ110">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK110">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AL110">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AM110">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AN110">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AO110">
-        <f t="shared" ref="AO110:BF110" si="3">SUM(AO2:AO109)</f>
-        <v>0</v>
-      </c>
-      <c r="AP110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AQ110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AR110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AS110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AT110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AU110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AV110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AW110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AX110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AY110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AZ110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BA110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BB110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BC110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BD110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BE110">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="BF110">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="BG110">
-        <f t="shared" ref="BG110:BU110" si="4">SUM(BG2:BG109)</f>
-        <v>1</v>
-      </c>
-      <c r="BH110">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BI110">
+      <c r="E110">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BJ110">
+      <c r="F110">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BK110">
+      <c r="G110">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BL110">
+      <c r="H110">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I110">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BM110">
+      <c r="J110">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BN110">
+      <c r="K110">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BO110">
+      <c r="L110">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BP110">
+      <c r="M110">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BQ110">
+      <c r="N110">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BR110">
+      <c r="O110">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BS110">
+      <c r="P110">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="BT110">
-        <f t="shared" si="4"/>
+      <c r="Q110">
+        <f t="shared" ref="Q110:AC110" si="5">SUM(Q2:Q109)</f>
         <v>1</v>
       </c>
-      <c r="BU110">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BV110">
-        <f t="shared" ref="BV110:BW110" si="5">SUM(BV2:BV109)</f>
-        <v>1</v>
-      </c>
-      <c r="BW110">
+      <c r="R110">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="S110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB110">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AD110">
+        <f t="shared" ref="AD110:AN110" si="6">SUM(AD2:AD109)</f>
+        <v>1</v>
+      </c>
+      <c r="AE110">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AF110">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG110">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AH110">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AI110">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AJ110">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AK110">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AL110">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AM110">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AN110">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AO110">
+        <f t="shared" ref="AO110:BF110" si="7">SUM(AO2:AO109)</f>
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AQ110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AR110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AS110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AT110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AU110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AV110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AW110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AX110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AY110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AZ110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="BA110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="BB110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="BC110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="BD110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="BE110">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="BF110">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="BG110">
+        <f t="shared" ref="BG110:BU110" si="8">SUM(BG2:BG109)</f>
+        <v>1</v>
+      </c>
+      <c r="BH110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BI110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BJ110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BK110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BL110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BM110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BN110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BO110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BP110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BQ110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BR110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BS110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BT110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BU110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BV110">
+        <f t="shared" ref="BV110:BW110" si="9">SUM(BV2:BV109)</f>
+        <v>1</v>
+      </c>
+      <c r="BW110">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="BX2:BX109">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B110:BW110">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
